--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8296592A-314C-45AC-963E-BE0D308DF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312A3B5-A4AC-410D-AF98-83F2A973505C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Keyword</t>
   </si>
@@ -220,9 +220,6 @@
     <t xml:space="preserve"> AK - AK </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 - TEST </t>
-  </si>
-  <si>
     <t xml:space="preserve"> O - OTHER </t>
   </si>
   <si>
@@ -233,6 +230,21 @@
   </si>
   <si>
     <t>link_AgencyProfile_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 - TEST11 </t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>AddNewProfile_AgencyProfile</t>
   </si>
 </sst>
 </file>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63821BDA-AAAA-4974-9A05-DF5FB56D766C}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -710,27 +722,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -738,13 +748,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -755,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -766,27 +776,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -794,97 +804,97 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
+      <c r="A10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
+      <c r="A12" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
+      <c r="A14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -895,10 +905,10 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -909,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -920,27 +930,27 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
+      <c r="A19" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -951,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -965,27 +975,39 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -999,6 +1021,9 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -1011,15 +1036,28 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B6EF0-90FF-40E9-AC8A-72CA956AA274}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>57</v>
@@ -1133,13 +1171,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>42</v>
